--- a/Deaths/UK Cases.xlsx
+++ b/Deaths/UK Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Google Drive\Backup\LwC\Users\JohannAbr\Documents\Corona\Daten\Deaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BAF957-95E5-42B1-983A-E58F0E7AF653}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55674ED-76CF-4E0F-B5F6-5901EE1E261B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{A7FFD2B8-A5CC-471E-BF27-04195E8C8258}"/>
   </bookViews>
@@ -1713,13 +1713,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1843,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1899,7 +1908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2316,8 +2325,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2328,8 +2359,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2738,14 +2772,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2775,11 +2809,26 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{F5CBBC89-B3D1-48AC-9970-6D1C1CC8CB7A}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{ABEBE809-98B6-4E22-A505-BCD9518291B8}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{CAB550B7-5120-45AE-B133-6E27D3B43D2F}"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Link" xfId="3" builtinId="8"/>
+    <cellStyle name="Link 2" xfId="10" xr:uid="{9ED3CBAB-E7D5-4FDC-8A84-971FAF5E8D4E}"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{81854016-2E67-48B3-B907-38312EBA3F23}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{0E655682-35C2-4F14-A81C-462819474E1E}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{FB11DF7C-7952-43DA-8F37-CCA74ECD75BE}"/>
@@ -62097,18 +62146,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDD8090-8D9C-4E2B-819A-C861104C1B8A}">
-  <dimension ref="A1:BV8"/>
+  <dimension ref="A1:CM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CL1" sqref="CL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A1" s="76" t="s">
         <v>22</v>
       </c>
@@ -62329,12 +62379,63 @@
       <c r="BV1" s="34">
         <v>43962</v>
       </c>
+      <c r="BW1" s="215">
+        <v>43963</v>
+      </c>
+      <c r="BX1" s="215">
+        <v>43964</v>
+      </c>
+      <c r="BY1" s="215">
+        <v>43965</v>
+      </c>
+      <c r="BZ1" s="215">
+        <v>43966</v>
+      </c>
+      <c r="CA1" s="215">
+        <v>43967</v>
+      </c>
+      <c r="CB1" s="215">
+        <v>43968</v>
+      </c>
+      <c r="CC1" s="215">
+        <v>43969</v>
+      </c>
+      <c r="CD1" s="215">
+        <v>43970</v>
+      </c>
+      <c r="CE1" s="215">
+        <v>43971</v>
+      </c>
+      <c r="CF1" s="215">
+        <v>43972</v>
+      </c>
+      <c r="CG1" s="215">
+        <v>43973</v>
+      </c>
+      <c r="CH1" s="215">
+        <v>43974</v>
+      </c>
+      <c r="CI1" s="215">
+        <v>43975</v>
+      </c>
+      <c r="CJ1" s="215">
+        <v>43976</v>
+      </c>
+      <c r="CK1" s="215">
+        <v>43977</v>
+      </c>
+      <c r="CL1" s="215">
+        <v>43978</v>
+      </c>
+      <c r="CM1" s="215">
+        <v>43979</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A2" s="202" t="s">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+      <c r="A2" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="49">
         <v>0</v>
       </c>
@@ -62551,8 +62652,59 @@
       <c r="BV2" s="49">
         <v>18</v>
       </c>
+      <c r="BW2" s="216">
+        <v>21</v>
+      </c>
+      <c r="BX2" s="216">
+        <v>27</v>
+      </c>
+      <c r="BY2" s="216">
+        <v>26</v>
+      </c>
+      <c r="BZ2" s="216">
+        <v>19</v>
+      </c>
+      <c r="CA2" s="216">
+        <v>26</v>
+      </c>
+      <c r="CB2" s="216">
+        <v>17</v>
+      </c>
+      <c r="CC2" s="216">
+        <v>24</v>
+      </c>
+      <c r="CD2" s="216">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="216">
+        <v>26</v>
+      </c>
+      <c r="CF2" s="216">
+        <v>21</v>
+      </c>
+      <c r="CG2" s="216">
+        <v>13</v>
+      </c>
+      <c r="CH2" s="216">
+        <v>12</v>
+      </c>
+      <c r="CI2" s="216">
+        <v>16</v>
+      </c>
+      <c r="CJ2" s="216">
+        <v>25</v>
+      </c>
+      <c r="CK2" s="216">
+        <v>13</v>
+      </c>
+      <c r="CL2" s="216">
+        <v>12</v>
+      </c>
+      <c r="CM2" s="216">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="196" t="s">
         <v>88</v>
       </c>
@@ -62773,8 +62925,59 @@
       <c r="BV3" s="84">
         <v>16</v>
       </c>
+      <c r="BW3" s="217">
+        <v>18</v>
+      </c>
+      <c r="BX3" s="217">
+        <v>16</v>
+      </c>
+      <c r="BY3" s="217">
+        <v>20</v>
+      </c>
+      <c r="BZ3" s="217">
+        <v>18</v>
+      </c>
+      <c r="CA3" s="217">
+        <v>14</v>
+      </c>
+      <c r="CB3" s="217">
+        <v>15</v>
+      </c>
+      <c r="CC3" s="217">
+        <v>9</v>
+      </c>
+      <c r="CD3" s="217">
+        <v>13</v>
+      </c>
+      <c r="CE3" s="217">
+        <v>19</v>
+      </c>
+      <c r="CF3" s="217">
+        <v>12</v>
+      </c>
+      <c r="CG3" s="217">
+        <v>10</v>
+      </c>
+      <c r="CH3" s="217">
+        <v>6</v>
+      </c>
+      <c r="CI3" s="217">
+        <v>7</v>
+      </c>
+      <c r="CJ3" s="217">
+        <v>8</v>
+      </c>
+      <c r="CK3" s="217">
+        <v>12</v>
+      </c>
+      <c r="CL3" s="217">
+        <v>7</v>
+      </c>
+      <c r="CM3" s="217">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="196" t="s">
         <v>164</v>
       </c>
@@ -62995,8 +63198,59 @@
       <c r="BV4" s="84">
         <v>31</v>
       </c>
+      <c r="BW4" s="217">
+        <v>45</v>
+      </c>
+      <c r="BX4" s="217">
+        <v>39</v>
+      </c>
+      <c r="BY4" s="217">
+        <v>36</v>
+      </c>
+      <c r="BZ4" s="217">
+        <v>40</v>
+      </c>
+      <c r="CA4" s="217">
+        <v>34</v>
+      </c>
+      <c r="CB4" s="217">
+        <v>31</v>
+      </c>
+      <c r="CC4" s="217">
+        <v>34</v>
+      </c>
+      <c r="CD4" s="217">
+        <v>33</v>
+      </c>
+      <c r="CE4" s="217">
+        <v>36</v>
+      </c>
+      <c r="CF4" s="217">
+        <v>32</v>
+      </c>
+      <c r="CG4" s="217">
+        <v>26</v>
+      </c>
+      <c r="CH4" s="217">
+        <v>30</v>
+      </c>
+      <c r="CI4" s="217">
+        <v>19</v>
+      </c>
+      <c r="CJ4" s="217">
+        <v>24</v>
+      </c>
+      <c r="CK4" s="217">
+        <v>31</v>
+      </c>
+      <c r="CL4" s="217">
+        <v>28</v>
+      </c>
+      <c r="CM4" s="217">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="196" t="s">
         <v>235</v>
       </c>
@@ -63217,8 +63471,59 @@
       <c r="BV5" s="84">
         <v>28</v>
       </c>
+      <c r="BW5" s="217">
+        <v>27</v>
+      </c>
+      <c r="BX5" s="217">
+        <v>28</v>
+      </c>
+      <c r="BY5" s="217">
+        <v>30</v>
+      </c>
+      <c r="BZ5" s="217">
+        <v>32</v>
+      </c>
+      <c r="CA5" s="217">
+        <v>35</v>
+      </c>
+      <c r="CB5" s="217">
+        <v>26</v>
+      </c>
+      <c r="CC5" s="217">
+        <v>29</v>
+      </c>
+      <c r="CD5" s="217">
+        <v>27</v>
+      </c>
+      <c r="CE5" s="217">
+        <v>21</v>
+      </c>
+      <c r="CF5" s="217">
+        <v>32</v>
+      </c>
+      <c r="CG5" s="217">
+        <v>22</v>
+      </c>
+      <c r="CH5" s="217">
+        <v>17</v>
+      </c>
+      <c r="CI5" s="217">
+        <v>23</v>
+      </c>
+      <c r="CJ5" s="217">
+        <v>21</v>
+      </c>
+      <c r="CK5" s="217">
+        <v>21</v>
+      </c>
+      <c r="CL5" s="217">
+        <v>18</v>
+      </c>
+      <c r="CM5" s="217">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A6" s="196" t="s">
         <v>294</v>
       </c>
@@ -63439,8 +63744,59 @@
       <c r="BV6" s="84">
         <v>32</v>
       </c>
+      <c r="BW6" s="217">
+        <v>38</v>
+      </c>
+      <c r="BX6" s="217">
+        <v>24</v>
+      </c>
+      <c r="BY6" s="217">
+        <v>26</v>
+      </c>
+      <c r="BZ6" s="217">
+        <v>33</v>
+      </c>
+      <c r="CA6" s="217">
+        <v>32</v>
+      </c>
+      <c r="CB6" s="217">
+        <v>24</v>
+      </c>
+      <c r="CC6" s="217">
+        <v>30</v>
+      </c>
+      <c r="CD6" s="217">
+        <v>34</v>
+      </c>
+      <c r="CE6" s="217">
+        <v>25</v>
+      </c>
+      <c r="CF6" s="217">
+        <v>24</v>
+      </c>
+      <c r="CG6" s="217">
+        <v>26</v>
+      </c>
+      <c r="CH6" s="217">
+        <v>30</v>
+      </c>
+      <c r="CI6" s="217">
+        <v>26</v>
+      </c>
+      <c r="CJ6" s="217">
+        <v>31</v>
+      </c>
+      <c r="CK6" s="217">
+        <v>27</v>
+      </c>
+      <c r="CL6" s="217">
+        <v>27</v>
+      </c>
+      <c r="CM6" s="217">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A7" s="196" t="s">
         <v>351</v>
       </c>
@@ -63661,8 +64017,59 @@
       <c r="BV7" s="84">
         <v>20</v>
       </c>
+      <c r="BW7" s="217">
+        <v>27</v>
+      </c>
+      <c r="BX7" s="217">
+        <v>18</v>
+      </c>
+      <c r="BY7" s="217">
+        <v>32</v>
+      </c>
+      <c r="BZ7" s="217">
+        <v>24</v>
+      </c>
+      <c r="CA7" s="217">
+        <v>22</v>
+      </c>
+      <c r="CB7" s="217">
+        <v>17</v>
+      </c>
+      <c r="CC7" s="217">
+        <v>20</v>
+      </c>
+      <c r="CD7" s="217">
+        <v>12</v>
+      </c>
+      <c r="CE7" s="217">
+        <v>22</v>
+      </c>
+      <c r="CF7" s="217">
+        <v>14</v>
+      </c>
+      <c r="CG7" s="217">
+        <v>17</v>
+      </c>
+      <c r="CH7" s="217">
+        <v>19</v>
+      </c>
+      <c r="CI7" s="217">
+        <v>16</v>
+      </c>
+      <c r="CJ7" s="217">
+        <v>13</v>
+      </c>
+      <c r="CK7" s="217">
+        <v>16</v>
+      </c>
+      <c r="CL7" s="217">
+        <v>16</v>
+      </c>
+      <c r="CM7" s="217">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A8" s="198" t="s">
         <v>414</v>
       </c>
@@ -63882,6 +64289,57 @@
       </c>
       <c r="BV8" s="86">
         <v>7</v>
+      </c>
+      <c r="BW8" s="218">
+        <v>7</v>
+      </c>
+      <c r="BX8" s="218">
+        <v>7</v>
+      </c>
+      <c r="BY8" s="218">
+        <v>6</v>
+      </c>
+      <c r="BZ8" s="218">
+        <v>3</v>
+      </c>
+      <c r="CA8" s="218">
+        <v>4</v>
+      </c>
+      <c r="CB8" s="218">
+        <v>6</v>
+      </c>
+      <c r="CC8" s="218">
+        <v>4</v>
+      </c>
+      <c r="CD8" s="218">
+        <v>6</v>
+      </c>
+      <c r="CE8" s="218">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="218">
+        <v>9</v>
+      </c>
+      <c r="CG8" s="218">
+        <v>6</v>
+      </c>
+      <c r="CH8" s="218">
+        <v>6</v>
+      </c>
+      <c r="CI8" s="218">
+        <v>3</v>
+      </c>
+      <c r="CJ8" s="218">
+        <v>7</v>
+      </c>
+      <c r="CK8" s="218">
+        <v>11</v>
+      </c>
+      <c r="CL8" s="218">
+        <v>5</v>
+      </c>
+      <c r="CM8" s="218">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -65039,8 +65497,8 @@
       <c r="E14" s="191"/>
       <c r="F14" s="191"/>
       <c r="G14" s="191"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
       <c r="J14" s="75"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -65433,7 +65891,7 @@
       <c r="B17" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="C17" s="201"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="78">
         <v>0</v>
       </c>
@@ -65777,10 +66235,10 @@
     </row>
     <row r="19" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="203"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="82">
         <v>0</v>
       </c>
@@ -67506,17 +67964,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -68660,8 +69118,8 @@
       <c r="E14" s="191"/>
       <c r="F14" s="191"/>
       <c r="G14" s="191"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
       <c r="J14" s="75"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -69055,7 +69513,7 @@
       <c r="B17" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="C17" s="201"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="78">
         <v>0</v>
       </c>
@@ -69399,10 +69857,10 @@
     </row>
     <row r="19" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="203"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="82">
         <v>0</v>
       </c>
@@ -71131,17 +71589,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -72275,8 +72733,8 @@
       <c r="E14" s="191"/>
       <c r="F14" s="191"/>
       <c r="G14" s="191"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
       <c r="J14" s="75"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
